--- a/Version3/RPI/BOM.xlsx
+++ b/Version3/RPI/BOM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will\Documents\Dropbox\eagle\Project\SX1301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\LoRa-concentrator\Version3\RPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{65B73928-C863-46DF-B607-C90F1EFFE4F5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="Radio_RPIv15." localSheetId="0">工作表1!$A$1:$F$61</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +27,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Radio_RPIv15" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Radio_RPIv15" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="950" firstRow="3" sourceFile="D:\Dropbox\eagle\Project\SX1301\Radio_RPIv15." delimited="0">
       <textFields count="6">
         <textField/>
@@ -317,9 +316,6 @@
     <t>M1</t>
   </si>
   <si>
-    <t>8.2uH</t>
-  </si>
-  <si>
     <t>L7</t>
   </si>
   <si>
@@ -554,13 +550,17 @@
   </si>
   <si>
     <t>LowPassFilter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2nH</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -662,7 +662,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Radio_RPIv15." connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Radio_RPIv15." connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,11 +927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1003,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -1029,7 +1029,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1091,10 +1091,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -1176,10 +1176,10 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
@@ -1230,7 +1230,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>42</v>
@@ -1261,10 +1261,10 @@
         <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>46</v>
@@ -1397,10 +1397,10 @@
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -1601,10 +1601,10 @@
         <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>87</v>
@@ -1632,16 +1632,16 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>16</v>
@@ -1658,7 +1658,7 @@
         <v>17</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1666,16 +1666,16 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1683,16 +1683,16 @@
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1700,16 +1700,16 @@
         <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1717,16 +1717,16 @@
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1734,16 +1734,16 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1751,16 +1751,16 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1768,16 +1768,16 @@
         <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1785,16 +1785,16 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1802,16 +1802,16 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1819,16 +1819,16 @@
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1836,16 +1836,16 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1853,16 +1853,16 @@
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1870,16 +1870,16 @@
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1887,16 +1887,16 @@
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1921,16 +1921,16 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1938,16 +1938,16 @@
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1955,16 +1955,16 @@
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1972,16 +1972,16 @@
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1989,16 +1989,16 @@
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
